--- a/dp/wed jan22.xlsx
+++ b/dp/wed jan22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="3-surgical" sheetId="14" r:id="rId11"/>
     <sheet name="pasha2" sheetId="7" r:id="rId12"/>
     <sheet name="homeo" sheetId="8" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'2-harbal'!$B$1:$B$72</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="1488">
   <si>
     <t>num</t>
   </si>
@@ -4519,6 +4520,9 @@
   </si>
   <si>
     <t>off</t>
+  </si>
+  <si>
+    <t>WhatsApp- 0334 4132 940</t>
   </si>
 </sst>
 </file>
@@ -4528,7 +4532,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4634,6 +4638,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4974,7 +4986,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5812,6 +5824,9 @@
     <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -6172,7 +6187,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="348" t="s">
+      <c r="A2" s="349" t="s">
         <v>851</v>
       </c>
       <c r="B2" s="177"/>
@@ -6187,7 +6202,7 @@
       <c r="G2" s="179"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="348"/>
+      <c r="A3" s="349"/>
       <c r="B3" s="177" t="s">
         <v>854</v>
       </c>
@@ -6198,7 +6213,7 @@
       <c r="G3" s="179"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="348"/>
+      <c r="A4" s="349"/>
       <c r="B4" s="177" t="s">
         <v>855</v>
       </c>
@@ -6209,7 +6224,7 @@
       <c r="G4" s="179"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="348"/>
+      <c r="A5" s="349"/>
       <c r="B5" s="177" t="s">
         <v>856</v>
       </c>
@@ -6220,7 +6235,7 @@
       <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="348"/>
+      <c r="A6" s="349"/>
       <c r="B6" s="177" t="s">
         <v>857</v>
       </c>
@@ -6231,7 +6246,7 @@
       <c r="G6" s="179"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="348"/>
+      <c r="A7" s="349"/>
       <c r="B7" s="177" t="s">
         <v>858</v>
       </c>
@@ -6242,7 +6257,7 @@
       <c r="G7" s="179"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="348"/>
+      <c r="A8" s="349"/>
       <c r="B8" s="177" t="s">
         <v>859</v>
       </c>
@@ -6253,7 +6268,7 @@
       <c r="G8" s="179"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="348"/>
+      <c r="A9" s="349"/>
       <c r="B9" s="177" t="s">
         <v>860</v>
       </c>
@@ -6264,7 +6279,7 @@
       <c r="G9" s="179"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="348"/>
+      <c r="A10" s="349"/>
       <c r="B10" s="177" t="s">
         <v>861</v>
       </c>
@@ -6275,7 +6290,7 @@
       <c r="G10" s="179"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="348"/>
+      <c r="A11" s="349"/>
       <c r="B11" s="177" t="s">
         <v>862</v>
       </c>
@@ -6288,7 +6303,7 @@
       <c r="G11" s="179"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="348"/>
+      <c r="A12" s="349"/>
       <c r="B12" s="177" t="s">
         <v>864</v>
       </c>
@@ -6299,7 +6314,7 @@
       <c r="G12" s="179"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="348"/>
+      <c r="A13" s="349"/>
       <c r="B13" s="177" t="s">
         <v>865</v>
       </c>
@@ -6310,7 +6325,7 @@
       <c r="G13" s="179"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="348"/>
+      <c r="A14" s="349"/>
       <c r="B14" s="177" t="s">
         <v>866</v>
       </c>
@@ -6321,7 +6336,7 @@
       <c r="G14" s="179"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="348"/>
+      <c r="A15" s="349"/>
       <c r="B15" s="177" t="s">
         <v>867</v>
       </c>
@@ -6444,7 +6459,7 @@
       <c r="G23" s="188"/>
     </row>
     <row r="24" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="349" t="s">
+      <c r="A24" s="350" t="s">
         <v>879</v>
       </c>
       <c r="B24" s="182" t="s">
@@ -6457,7 +6472,7 @@
       <c r="G24" s="184"/>
     </row>
     <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="349"/>
+      <c r="A25" s="350"/>
       <c r="B25" s="195" t="s">
         <v>881</v>
       </c>
@@ -6468,7 +6483,7 @@
       <c r="G25" s="185"/>
     </row>
     <row r="26" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="349"/>
+      <c r="A26" s="350"/>
       <c r="B26" s="195" t="s">
         <v>882</v>
       </c>
@@ -6479,7 +6494,7 @@
       <c r="G26" s="185"/>
     </row>
     <row r="27" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="349"/>
+      <c r="A27" s="350"/>
       <c r="B27" s="195" t="s">
         <v>883</v>
       </c>
@@ -6498,7 +6513,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="349"/>
+      <c r="A28" s="350"/>
       <c r="B28" s="195" t="s">
         <v>887</v>
       </c>
@@ -6509,7 +6524,7 @@
       <c r="G28" s="184"/>
     </row>
     <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="349"/>
+      <c r="A29" s="350"/>
       <c r="B29" s="182" t="s">
         <v>888</v>
       </c>
@@ -6520,7 +6535,7 @@
       <c r="G29" s="184"/>
     </row>
     <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="349"/>
+      <c r="A30" s="350"/>
       <c r="B30" s="182" t="s">
         <v>860</v>
       </c>
@@ -6531,7 +6546,7 @@
       <c r="G30" s="184"/>
     </row>
     <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="349"/>
+      <c r="A31" s="350"/>
       <c r="B31" s="182" t="s">
         <v>889</v>
       </c>
@@ -6542,7 +6557,7 @@
       <c r="G31" s="184"/>
     </row>
     <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="349"/>
+      <c r="A32" s="350"/>
       <c r="B32" s="182" t="s">
         <v>890</v>
       </c>
@@ -6553,7 +6568,7 @@
       <c r="G32" s="184"/>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="349"/>
+      <c r="A33" s="350"/>
       <c r="B33" s="188" t="s">
         <v>891</v>
       </c>
@@ -6570,7 +6585,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="349"/>
+      <c r="A34" s="350"/>
       <c r="B34" s="182" t="s">
         <v>895</v>
       </c>
@@ -6581,7 +6596,7 @@
       <c r="G34" s="184"/>
     </row>
     <row r="35" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="350" t="s">
+      <c r="A35" s="351" t="s">
         <v>896</v>
       </c>
       <c r="B35" s="202" t="s">
@@ -6600,7 +6615,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="350"/>
+      <c r="A36" s="351"/>
       <c r="B36" s="188" t="s">
         <v>899</v>
       </c>
@@ -6611,7 +6626,7 @@
       <c r="G36" s="188"/>
     </row>
     <row r="37" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="350"/>
+      <c r="A37" s="351"/>
       <c r="B37" s="188" t="s">
         <v>860</v>
       </c>
@@ -6622,7 +6637,7 @@
       <c r="G37" s="188"/>
     </row>
     <row r="38" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="350"/>
+      <c r="A38" s="351"/>
       <c r="B38" s="188" t="s">
         <v>889</v>
       </c>
@@ -6637,7 +6652,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="350"/>
+      <c r="A39" s="351"/>
       <c r="B39" s="188" t="s">
         <v>900</v>
       </c>
@@ -6648,7 +6663,7 @@
       <c r="G39" s="188"/>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="350"/>
+      <c r="A40" s="351"/>
       <c r="B40" s="188" t="s">
         <v>901</v>
       </c>
@@ -6751,7 +6766,7 @@
       <c r="G46" s="148"/>
     </row>
     <row r="47" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="347" t="s">
+      <c r="A47" s="348" t="s">
         <v>914</v>
       </c>
       <c r="B47" s="214" t="s">
@@ -6770,7 +6785,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="347"/>
+      <c r="A48" s="348"/>
       <c r="B48" s="214" t="s">
         <v>882</v>
       </c>
@@ -6781,7 +6796,7 @@
       <c r="G48" s="73"/>
     </row>
     <row r="49" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="347"/>
+      <c r="A49" s="348"/>
       <c r="B49" s="214" t="s">
         <v>919</v>
       </c>
@@ -6792,7 +6807,7 @@
       <c r="G49" s="73"/>
     </row>
     <row r="50" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="347"/>
+      <c r="A50" s="348"/>
       <c r="B50" s="181"/>
       <c r="C50" s="188"/>
       <c r="D50" s="181"/>
@@ -6801,7 +6816,7 @@
       <c r="G50" s="73"/>
     </row>
     <row r="51" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="347"/>
+      <c r="A51" s="348"/>
       <c r="B51" s="188" t="s">
         <v>920</v>
       </c>
@@ -6812,7 +6827,7 @@
       <c r="G51" s="73"/>
     </row>
     <row r="52" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="347"/>
+      <c r="A52" s="348"/>
       <c r="B52" s="214" t="s">
         <v>921</v>
       </c>
@@ -6823,7 +6838,7 @@
       <c r="G52" s="73"/>
     </row>
     <row r="53" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="347"/>
+      <c r="A53" s="348"/>
       <c r="B53" s="194"/>
       <c r="C53" s="188"/>
       <c r="D53" s="181"/>
@@ -6832,7 +6847,7 @@
       <c r="G53" s="73"/>
     </row>
     <row r="54" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="347"/>
+      <c r="A54" s="348"/>
       <c r="B54" s="20" t="s">
         <v>922</v>
       </c>
@@ -6843,7 +6858,7 @@
       <c r="G54" s="73"/>
     </row>
     <row r="55" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="347"/>
+      <c r="A55" s="348"/>
       <c r="B55" s="180" t="s">
         <v>860</v>
       </c>
@@ -6854,7 +6869,7 @@
       <c r="G55" s="73"/>
     </row>
     <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="347"/>
+      <c r="A56" s="348"/>
       <c r="B56" s="195" t="s">
         <v>923</v>
       </c>
@@ -6865,7 +6880,7 @@
       <c r="G56" s="73"/>
     </row>
     <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="347"/>
+      <c r="A57" s="348"/>
       <c r="B57" s="180" t="s">
         <v>924</v>
       </c>
@@ -6882,7 +6897,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="347"/>
+      <c r="A58" s="348"/>
       <c r="B58" s="180" t="s">
         <v>880</v>
       </c>
@@ -12559,10 +12574,10 @@
     </row>
     <row r="24" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="351" t="s">
+      <c r="A25" s="352" t="s">
         <v>694</v>
       </c>
-      <c r="B25" s="352"/>
+      <c r="B25" s="353"/>
       <c r="C25" s="9">
         <v>1</v>
       </c>
@@ -14918,6 +14933,377 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C1" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D1" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B2" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C2" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D2" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B3" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C3" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D3" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B4" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C4" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D4" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B5" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C5" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D5" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B6" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C6" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D6" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B7" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C7" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D7" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B8" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C8" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D8" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B9" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C9" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D9" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B10" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C10" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D10" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B11" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C11" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D11" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B12" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C12" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D12" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B13" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C13" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D13" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B14" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C14" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D14" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B15" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C15" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D15" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B16" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C16" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D16" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B17" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C17" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D17" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B18" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C18" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D18" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B19" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C19" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D19" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B20" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C20" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D20" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B21" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C21" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D21" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B22" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C22" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D22" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B23" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C23" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D23" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B24" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C24" s="347" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D24" s="347" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="248"/>
+      <c r="B25" s="248"/>
+      <c r="C25" s="248"/>
+    </row>
+    <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="248"/>
+      <c r="B26" s="248"/>
+      <c r="C26" s="248"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="248"/>
+      <c r="B27" s="248"/>
+      <c r="C27" s="248"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
@@ -14982,7 +15368,7 @@
     <row r="2" spans="1:12" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="235">
         <f ca="1">NOW()</f>
-        <v>44600.738417245368</v>
+        <v>44602.833948842592</v>
       </c>
       <c r="B2" s="70" t="str">
         <f t="shared" ref="B2:B34" si="0">IF( H2-I2 &gt; 0,H2-I2, "")</f>
@@ -21234,7 +21620,7 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="235">
         <f ca="1">NOW()</f>
-        <v>44600.738417245368</v>
+        <v>44602.833948842592</v>
       </c>
       <c r="B5" s="292"/>
       <c r="C5" s="60"/>
@@ -36680,7 +37066,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
